--- a/yahoofinance/VWOB_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VWOB_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>61.290001</v>
       </c>
       <c r="F2" t="n">
-        <v>58.739326</v>
+        <v>58.434589</v>
       </c>
       <c r="G2" t="n">
         <v>354200</v>
@@ -514,7 +514,7 @@
         <v>61.93</v>
       </c>
       <c r="F3" t="n">
-        <v>59.352688</v>
+        <v>59.044781</v>
       </c>
       <c r="G3" t="n">
         <v>304500</v>
@@ -539,7 +539,7 @@
         <v>61.509998</v>
       </c>
       <c r="F4" t="n">
-        <v>58.950165</v>
+        <v>58.644344</v>
       </c>
       <c r="G4" t="n">
         <v>253100</v>
@@ -564,7 +564,7 @@
         <v>62.459999</v>
       </c>
       <c r="F5" t="n">
-        <v>59.860634</v>
+        <v>59.550079</v>
       </c>
       <c r="G5" t="n">
         <v>643500</v>
@@ -589,7 +589,7 @@
         <v>62.419998</v>
       </c>
       <c r="F6" t="n">
-        <v>59.822292</v>
+        <v>59.511948</v>
       </c>
       <c r="G6" t="n">
         <v>520500</v>
@@ -614,7 +614,7 @@
         <v>62.040001</v>
       </c>
       <c r="F7" t="n">
-        <v>59.458111</v>
+        <v>59.149651</v>
       </c>
       <c r="G7" t="n">
         <v>395800</v>
@@ -639,7 +639,7 @@
         <v>62.540001</v>
       </c>
       <c r="F8" t="n">
-        <v>59.937302</v>
+        <v>59.626358</v>
       </c>
       <c r="G8" t="n">
         <v>618900</v>
@@ -664,7 +664,7 @@
         <v>63.259998</v>
       </c>
       <c r="F9" t="n">
-        <v>60.627342</v>
+        <v>60.312813</v>
       </c>
       <c r="G9" t="n">
         <v>344600</v>
@@ -689,7 +689,7 @@
         <v>63.080002</v>
       </c>
       <c r="F10" t="n">
-        <v>60.454834</v>
+        <v>60.141197</v>
       </c>
       <c r="G10" t="n">
         <v>455500</v>
@@ -714,7 +714,7 @@
         <v>63.209999</v>
       </c>
       <c r="F11" t="n">
-        <v>60.579422</v>
+        <v>60.265148</v>
       </c>
       <c r="G11" t="n">
         <v>300500</v>
@@ -739,7 +739,7 @@
         <v>63.98</v>
       </c>
       <c r="F12" t="n">
-        <v>61.317371</v>
+        <v>60.99926</v>
       </c>
       <c r="G12" t="n">
         <v>453000</v>
@@ -764,7 +764,7 @@
         <v>63.799999</v>
       </c>
       <c r="F13" t="n">
-        <v>61.144867</v>
+        <v>60.827656</v>
       </c>
       <c r="G13" t="n">
         <v>288700</v>
@@ -789,7 +789,7 @@
         <v>63.66</v>
       </c>
       <c r="F14" t="n">
-        <v>61.010696</v>
+        <v>60.69418</v>
       </c>
       <c r="G14" t="n">
         <v>252000</v>
@@ -814,7 +814,7 @@
         <v>63.619999</v>
       </c>
       <c r="F15" t="n">
-        <v>60.972355</v>
+        <v>60.656044</v>
       </c>
       <c r="G15" t="n">
         <v>274200</v>
@@ -839,7 +839,7 @@
         <v>64.029999</v>
       </c>
       <c r="F16" t="n">
-        <v>61.365292</v>
+        <v>61.046944</v>
       </c>
       <c r="G16" t="n">
         <v>770400</v>
@@ -864,7 +864,7 @@
         <v>63.900002</v>
       </c>
       <c r="F17" t="n">
-        <v>61.240707</v>
+        <v>60.923</v>
       </c>
       <c r="G17" t="n">
         <v>393800</v>
@@ -889,7 +889,7 @@
         <v>63.939999</v>
       </c>
       <c r="F18" t="n">
-        <v>61.279041</v>
+        <v>60.961132</v>
       </c>
       <c r="G18" t="n">
         <v>1162600</v>
@@ -914,7 +914,7 @@
         <v>63.779999</v>
       </c>
       <c r="F19" t="n">
-        <v>61.125698</v>
+        <v>60.808598</v>
       </c>
       <c r="G19" t="n">
         <v>220300</v>
@@ -939,7 +939,7 @@
         <v>63.060001</v>
       </c>
       <c r="F20" t="n">
-        <v>60.435661</v>
+        <v>60.122124</v>
       </c>
       <c r="G20" t="n">
         <v>390500</v>
@@ -964,7 +964,7 @@
         <v>63.439999</v>
       </c>
       <c r="F21" t="n">
-        <v>60.79985</v>
+        <v>60.484428</v>
       </c>
       <c r="G21" t="n">
         <v>367400</v>
@@ -989,7 +989,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>61.778801</v>
+        <v>61.458305</v>
       </c>
       <c r="G22" t="n">
         <v>477300</v>
@@ -1014,7 +1014,7 @@
         <v>64.370003</v>
       </c>
       <c r="F23" t="n">
-        <v>61.961693</v>
+        <v>61.640247</v>
       </c>
       <c r="G23" t="n">
         <v>714000</v>
@@ -1039,7 +1039,7 @@
         <v>63.599998</v>
       </c>
       <c r="F24" t="n">
-        <v>61.220501</v>
+        <v>60.902897</v>
       </c>
       <c r="G24" t="n">
         <v>630600</v>
@@ -1064,7 +1064,7 @@
         <v>62.740002</v>
       </c>
       <c r="F25" t="n">
-        <v>60.392681</v>
+        <v>60.079369</v>
       </c>
       <c r="G25" t="n">
         <v>435900</v>
@@ -1089,7 +1089,7 @@
         <v>62.799999</v>
       </c>
       <c r="F26" t="n">
-        <v>60.450428</v>
+        <v>60.136818</v>
       </c>
       <c r="G26" t="n">
         <v>631900</v>
@@ -1114,7 +1114,7 @@
         <v>62.73</v>
       </c>
       <c r="F27" t="n">
-        <v>60.383049</v>
+        <v>60.069786</v>
       </c>
       <c r="G27" t="n">
         <v>633200</v>
@@ -1139,7 +1139,7 @@
         <v>62.360001</v>
       </c>
       <c r="F28" t="n">
-        <v>60.026894</v>
+        <v>59.715477</v>
       </c>
       <c r="G28" t="n">
         <v>606400</v>
@@ -1164,7 +1164,7 @@
         <v>61.849998</v>
       </c>
       <c r="F29" t="n">
-        <v>59.535976</v>
+        <v>59.227108</v>
       </c>
       <c r="G29" t="n">
         <v>509800</v>
@@ -1189,7 +1189,7 @@
         <v>62.02</v>
       </c>
       <c r="F30" t="n">
-        <v>59.699612</v>
+        <v>59.389896</v>
       </c>
       <c r="G30" t="n">
         <v>322600</v>
@@ -1214,7 +1214,7 @@
         <v>62.029999</v>
       </c>
       <c r="F31" t="n">
-        <v>59.70924</v>
+        <v>59.399479</v>
       </c>
       <c r="G31" t="n">
         <v>980900</v>
@@ -1239,7 +1239,7 @@
         <v>61.82</v>
       </c>
       <c r="F32" t="n">
-        <v>59.507095</v>
+        <v>59.19838</v>
       </c>
       <c r="G32" t="n">
         <v>275100</v>
@@ -1264,7 +1264,7 @@
         <v>61.48</v>
       </c>
       <c r="F33" t="n">
-        <v>59.179817</v>
+        <v>58.872799</v>
       </c>
       <c r="G33" t="n">
         <v>289700</v>
@@ -1289,7 +1289,7 @@
         <v>61.450001</v>
       </c>
       <c r="F34" t="n">
-        <v>59.150944</v>
+        <v>58.84407</v>
       </c>
       <c r="G34" t="n">
         <v>387400</v>
@@ -1314,7 +1314,7 @@
         <v>60.509998</v>
       </c>
       <c r="F35" t="n">
-        <v>58.246109</v>
+        <v>57.943935</v>
       </c>
       <c r="G35" t="n">
         <v>284800</v>
@@ -1339,7 +1339,7 @@
         <v>60.91</v>
       </c>
       <c r="F36" t="n">
-        <v>58.631142</v>
+        <v>58.326977</v>
       </c>
       <c r="G36" t="n">
         <v>362800</v>
@@ -1364,7 +1364,7 @@
         <v>61.77</v>
       </c>
       <c r="F37" t="n">
-        <v>59.458965</v>
+        <v>59.150505</v>
       </c>
       <c r="G37" t="n">
         <v>393000</v>
@@ -1389,7 +1389,7 @@
         <v>61.360001</v>
       </c>
       <c r="F38" t="n">
-        <v>59.064308</v>
+        <v>58.757889</v>
       </c>
       <c r="G38" t="n">
         <v>209200</v>
@@ -1414,7 +1414,7 @@
         <v>61.68</v>
       </c>
       <c r="F39" t="n">
-        <v>59.372334</v>
+        <v>59.06432</v>
       </c>
       <c r="G39" t="n">
         <v>304700</v>
@@ -1439,7 +1439,7 @@
         <v>61.439999</v>
       </c>
       <c r="F40" t="n">
-        <v>59.141312</v>
+        <v>58.834496</v>
       </c>
       <c r="G40" t="n">
         <v>331700</v>
@@ -1464,7 +1464,7 @@
         <v>60.720001</v>
       </c>
       <c r="F41" t="n">
-        <v>58.718716</v>
+        <v>58.414093</v>
       </c>
       <c r="G41" t="n">
         <v>452000</v>
@@ -1489,7 +1489,7 @@
         <v>60.59</v>
       </c>
       <c r="F42" t="n">
-        <v>58.592999</v>
+        <v>58.289028</v>
       </c>
       <c r="G42" t="n">
         <v>417800</v>
@@ -1514,7 +1514,7 @@
         <v>61.290001</v>
       </c>
       <c r="F43" t="n">
-        <v>59.269932</v>
+        <v>58.962444</v>
       </c>
       <c r="G43" t="n">
         <v>460400</v>
@@ -1539,7 +1539,7 @@
         <v>61.099998</v>
       </c>
       <c r="F44" t="n">
-        <v>59.086189</v>
+        <v>58.779655</v>
       </c>
       <c r="G44" t="n">
         <v>211400</v>
@@ -1564,7 +1564,7 @@
         <v>61.040001</v>
       </c>
       <c r="F45" t="n">
-        <v>59.028168</v>
+        <v>58.721935</v>
       </c>
       <c r="G45" t="n">
         <v>458400</v>
@@ -1589,7 +1589,7 @@
         <v>60.740002</v>
       </c>
       <c r="F46" t="n">
-        <v>58.738064</v>
+        <v>58.433334</v>
       </c>
       <c r="G46" t="n">
         <v>206300</v>
@@ -1614,7 +1614,7 @@
         <v>60.709999</v>
       </c>
       <c r="F47" t="n">
-        <v>58.709045</v>
+        <v>58.404472</v>
       </c>
       <c r="G47" t="n">
         <v>465800</v>
@@ -1639,7 +1639,7 @@
         <v>61.23</v>
       </c>
       <c r="F48" t="n">
-        <v>59.211906</v>
+        <v>58.904728</v>
       </c>
       <c r="G48" t="n">
         <v>377500</v>
@@ -1664,7 +1664,7 @@
         <v>61.02</v>
       </c>
       <c r="F49" t="n">
-        <v>59.008831</v>
+        <v>58.702702</v>
       </c>
       <c r="G49" t="n">
         <v>368300</v>
@@ -1689,7 +1689,7 @@
         <v>61.150002</v>
       </c>
       <c r="F50" t="n">
-        <v>59.134541</v>
+        <v>58.827766</v>
       </c>
       <c r="G50" t="n">
         <v>136900</v>
@@ -1714,7 +1714,7 @@
         <v>61.220001</v>
       </c>
       <c r="F51" t="n">
-        <v>59.202236</v>
+        <v>58.895103</v>
       </c>
       <c r="G51" t="n">
         <v>232500</v>
@@ -1739,7 +1739,7 @@
         <v>61</v>
       </c>
       <c r="F52" t="n">
-        <v>58.989487</v>
+        <v>58.68346</v>
       </c>
       <c r="G52" t="n">
         <v>371300</v>
@@ -1764,7 +1764,7 @@
         <v>61.029999</v>
       </c>
       <c r="F53" t="n">
-        <v>59.018501</v>
+        <v>58.712318</v>
       </c>
       <c r="G53" t="n">
         <v>380400</v>
@@ -1789,7 +1789,7 @@
         <v>60.849998</v>
       </c>
       <c r="F54" t="n">
-        <v>58.844437</v>
+        <v>58.539154</v>
       </c>
       <c r="G54" t="n">
         <v>311000</v>
@@ -1814,7 +1814,7 @@
         <v>61.299999</v>
       </c>
       <c r="F55" t="n">
-        <v>59.279598</v>
+        <v>58.972061</v>
       </c>
       <c r="G55" t="n">
         <v>464300</v>
@@ -1839,7 +1839,7 @@
         <v>61.849998</v>
       </c>
       <c r="F56" t="n">
-        <v>59.811474</v>
+        <v>59.501183</v>
       </c>
       <c r="G56" t="n">
         <v>193100</v>
@@ -1864,7 +1864,7 @@
         <v>61.970001</v>
       </c>
       <c r="F57" t="n">
-        <v>59.927517</v>
+        <v>59.616627</v>
       </c>
       <c r="G57" t="n">
         <v>241000</v>
@@ -1889,7 +1889,7 @@
         <v>61.650002</v>
       </c>
       <c r="F58" t="n">
-        <v>59.618069</v>
+        <v>59.308773</v>
       </c>
       <c r="G58" t="n">
         <v>189600</v>
@@ -1914,7 +1914,7 @@
         <v>61.41</v>
       </c>
       <c r="F59" t="n">
-        <v>59.385975</v>
+        <v>59.077892</v>
       </c>
       <c r="G59" t="n">
         <v>204200</v>
@@ -1939,7 +1939,7 @@
         <v>61.18</v>
       </c>
       <c r="F60" t="n">
-        <v>59.163555</v>
+        <v>58.856625</v>
       </c>
       <c r="G60" t="n">
         <v>160800</v>
@@ -1964,7 +1964,7 @@
         <v>61.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>59.414986</v>
+        <v>59.106747</v>
       </c>
       <c r="G61" t="n">
         <v>511900</v>
@@ -1989,7 +1989,7 @@
         <v>61.869999</v>
       </c>
       <c r="F62" t="n">
-        <v>59.830811</v>
+        <v>59.52042</v>
       </c>
       <c r="G62" t="n">
         <v>222100</v>
@@ -2014,7 +2014,7 @@
         <v>62.310001</v>
       </c>
       <c r="F63" t="n">
-        <v>60.256313</v>
+        <v>59.943714</v>
       </c>
       <c r="G63" t="n">
         <v>283500</v>
@@ -2039,7 +2039,7 @@
         <v>62.209999</v>
       </c>
       <c r="F64" t="n">
-        <v>60.438957</v>
+        <v>60.125404</v>
       </c>
       <c r="G64" t="n">
         <v>465900</v>
@@ -2064,7 +2064,7 @@
         <v>62.259998</v>
       </c>
       <c r="F65" t="n">
-        <v>60.487534</v>
+        <v>60.173733</v>
       </c>
       <c r="G65" t="n">
         <v>221700</v>
@@ -2089,7 +2089,7 @@
         <v>62.189999</v>
       </c>
       <c r="F66" t="n">
-        <v>60.419529</v>
+        <v>60.106079</v>
       </c>
       <c r="G66" t="n">
         <v>480600</v>
@@ -2114,7 +2114,7 @@
         <v>62.130001</v>
       </c>
       <c r="F67" t="n">
-        <v>60.361233</v>
+        <v>60.048092</v>
       </c>
       <c r="G67" t="n">
         <v>197100</v>
@@ -2139,7 +2139,7 @@
         <v>61.849998</v>
       </c>
       <c r="F68" t="n">
-        <v>60.089207</v>
+        <v>59.777473</v>
       </c>
       <c r="G68" t="n">
         <v>214200</v>
@@ -2164,7 +2164,7 @@
         <v>61.900002</v>
       </c>
       <c r="F69" t="n">
-        <v>60.137787</v>
+        <v>59.825794</v>
       </c>
       <c r="G69" t="n">
         <v>223800</v>
@@ -2189,7 +2189,7 @@
         <v>62.099998</v>
       </c>
       <c r="F70" t="n">
-        <v>60.332088</v>
+        <v>60.019096</v>
       </c>
       <c r="G70" t="n">
         <v>247700</v>
@@ -2214,7 +2214,7 @@
         <v>62.16</v>
       </c>
       <c r="F71" t="n">
-        <v>60.390381</v>
+        <v>60.077084</v>
       </c>
       <c r="G71" t="n">
         <v>252800</v>
@@ -2239,7 +2239,7 @@
         <v>62.07</v>
       </c>
       <c r="F72" t="n">
-        <v>60.302944</v>
+        <v>59.990097</v>
       </c>
       <c r="G72" t="n">
         <v>186200</v>
@@ -2264,7 +2264,7 @@
         <v>61.650002</v>
       </c>
       <c r="F73" t="n">
-        <v>59.894905</v>
+        <v>59.584171</v>
       </c>
       <c r="G73" t="n">
         <v>655200</v>
@@ -2289,7 +2289,7 @@
         <v>61.68</v>
       </c>
       <c r="F74" t="n">
-        <v>59.924046</v>
+        <v>59.613159</v>
       </c>
       <c r="G74" t="n">
         <v>240700</v>
@@ -2314,7 +2314,7 @@
         <v>61.490002</v>
       </c>
       <c r="F75" t="n">
-        <v>59.739456</v>
+        <v>59.429539</v>
       </c>
       <c r="G75" t="n">
         <v>156300</v>
@@ -2339,7 +2339,7 @@
         <v>61.459999</v>
       </c>
       <c r="F76" t="n">
-        <v>59.710308</v>
+        <v>59.400547</v>
       </c>
       <c r="G76" t="n">
         <v>189900</v>
@@ -2364,7 +2364,7 @@
         <v>61.389999</v>
       </c>
       <c r="F77" t="n">
-        <v>59.642303</v>
+        <v>59.332886</v>
       </c>
       <c r="G77" t="n">
         <v>394700</v>
@@ -2389,7 +2389,7 @@
         <v>61.5</v>
       </c>
       <c r="F78" t="n">
-        <v>59.749168</v>
+        <v>59.439201</v>
       </c>
       <c r="G78" t="n">
         <v>166100</v>
@@ -2414,7 +2414,7 @@
         <v>61.810001</v>
       </c>
       <c r="F79" t="n">
-        <v>60.050346</v>
+        <v>59.738815</v>
       </c>
       <c r="G79" t="n">
         <v>386900</v>
@@ -2439,7 +2439,7 @@
         <v>61.630001</v>
       </c>
       <c r="F80" t="n">
-        <v>59.875477</v>
+        <v>59.564846</v>
       </c>
       <c r="G80" t="n">
         <v>222600</v>
@@ -2464,7 +2464,7 @@
         <v>61.630001</v>
       </c>
       <c r="F81" t="n">
-        <v>59.875477</v>
+        <v>59.564846</v>
       </c>
       <c r="G81" t="n">
         <v>254400</v>
@@ -2489,7 +2489,7 @@
         <v>62.169998</v>
       </c>
       <c r="F82" t="n">
-        <v>60.400093</v>
+        <v>60.086746</v>
       </c>
       <c r="G82" t="n">
         <v>145300</v>
@@ -2514,7 +2514,7 @@
         <v>61.240002</v>
       </c>
       <c r="F83" t="n">
-        <v>59.775406</v>
+        <v>59.465298</v>
       </c>
       <c r="G83" t="n">
         <v>259600</v>
@@ -2539,7 +2539,7 @@
         <v>61.59</v>
       </c>
       <c r="F84" t="n">
-        <v>60.117039</v>
+        <v>59.805149</v>
       </c>
       <c r="G84" t="n">
         <v>218500</v>
@@ -2564,7 +2564,7 @@
         <v>61.790001</v>
       </c>
       <c r="F85" t="n">
-        <v>60.312244</v>
+        <v>59.999355</v>
       </c>
       <c r="G85" t="n">
         <v>217300</v>
@@ -2589,7 +2589,7 @@
         <v>61.459999</v>
       </c>
       <c r="F86" t="n">
-        <v>59.990143</v>
+        <v>59.678925</v>
       </c>
       <c r="G86" t="n">
         <v>725000</v>
@@ -2614,7 +2614,7 @@
         <v>61.630001</v>
       </c>
       <c r="F87" t="n">
-        <v>60.156075</v>
+        <v>59.843994</v>
       </c>
       <c r="G87" t="n">
         <v>251200</v>
@@ -2639,7 +2639,7 @@
         <v>61.41</v>
       </c>
       <c r="F88" t="n">
-        <v>59.941341</v>
+        <v>59.630371</v>
       </c>
       <c r="G88" t="n">
         <v>144900</v>
@@ -2664,7 +2664,7 @@
         <v>61.299999</v>
       </c>
       <c r="F89" t="n">
-        <v>59.833961</v>
+        <v>59.523556</v>
       </c>
       <c r="G89" t="n">
         <v>140400</v>
@@ -2689,7 +2689,7 @@
         <v>61.700001</v>
       </c>
       <c r="F90" t="n">
-        <v>60.2244</v>
+        <v>59.911961</v>
       </c>
       <c r="G90" t="n">
         <v>221600</v>
@@ -2714,7 +2714,7 @@
         <v>62</v>
       </c>
       <c r="F91" t="n">
-        <v>60.517223</v>
+        <v>60.20327</v>
       </c>
       <c r="G91" t="n">
         <v>149100</v>
@@ -2739,7 +2739,7 @@
         <v>61.529999</v>
       </c>
       <c r="F92" t="n">
-        <v>60.058468</v>
+        <v>59.746891</v>
       </c>
       <c r="G92" t="n">
         <v>122800</v>
@@ -2764,7 +2764,7 @@
         <v>61.16</v>
       </c>
       <c r="F93" t="n">
-        <v>59.697319</v>
+        <v>59.387615</v>
       </c>
       <c r="G93" t="n">
         <v>252700</v>
@@ -2789,7 +2789,7 @@
         <v>60.950001</v>
       </c>
       <c r="F94" t="n">
-        <v>59.49234</v>
+        <v>59.183697</v>
       </c>
       <c r="G94" t="n">
         <v>469300</v>
@@ -2814,7 +2814,7 @@
         <v>60.889999</v>
       </c>
       <c r="F95" t="n">
-        <v>59.433773</v>
+        <v>59.125439</v>
       </c>
       <c r="G95" t="n">
         <v>209100</v>
@@ -2839,7 +2839,7 @@
         <v>60.66</v>
       </c>
       <c r="F96" t="n">
-        <v>59.209274</v>
+        <v>58.9021</v>
       </c>
       <c r="G96" t="n">
         <v>232100</v>
@@ -2864,7 +2864,7 @@
         <v>60.700001</v>
       </c>
       <c r="F97" t="n">
-        <v>59.248318</v>
+        <v>58.940945</v>
       </c>
       <c r="G97" t="n">
         <v>242600</v>
@@ -2889,7 +2889,7 @@
         <v>60.66</v>
       </c>
       <c r="F98" t="n">
-        <v>59.209274</v>
+        <v>58.9021</v>
       </c>
       <c r="G98" t="n">
         <v>264500</v>
@@ -2914,7 +2914,7 @@
         <v>60.73</v>
       </c>
       <c r="F99" t="n">
-        <v>59.277596</v>
+        <v>58.970078</v>
       </c>
       <c r="G99" t="n">
         <v>142900</v>
@@ -2939,7 +2939,7 @@
         <v>60.599998</v>
       </c>
       <c r="F100" t="n">
-        <v>59.150707</v>
+        <v>58.843842</v>
       </c>
       <c r="G100" t="n">
         <v>191500</v>
@@ -2964,7 +2964,7 @@
         <v>60.43</v>
       </c>
       <c r="F101" t="n">
-        <v>58.984772</v>
+        <v>58.678768</v>
       </c>
       <c r="G101" t="n">
         <v>133500</v>
@@ -2989,7 +2989,7 @@
         <v>60.66</v>
       </c>
       <c r="F102" t="n">
-        <v>59.209274</v>
+        <v>58.9021</v>
       </c>
       <c r="G102" t="n">
         <v>167400</v>
@@ -3014,7 +3014,7 @@
         <v>61.119999</v>
       </c>
       <c r="F103" t="n">
-        <v>59.658268</v>
+        <v>59.348766</v>
       </c>
       <c r="G103" t="n">
         <v>119500</v>
@@ -3039,7 +3039,7 @@
         <v>61.119999</v>
       </c>
       <c r="F104" t="n">
-        <v>59.658268</v>
+        <v>59.348766</v>
       </c>
       <c r="G104" t="n">
         <v>152700</v>
@@ -3064,7 +3064,7 @@
         <v>61.150002</v>
       </c>
       <c r="F105" t="n">
-        <v>59.975067</v>
+        <v>59.663921</v>
       </c>
       <c r="G105" t="n">
         <v>208400</v>
@@ -3089,7 +3089,7 @@
         <v>61.080002</v>
       </c>
       <c r="F106" t="n">
-        <v>59.90641</v>
+        <v>59.595627</v>
       </c>
       <c r="G106" t="n">
         <v>379800</v>
@@ -3114,7 +3114,7 @@
         <v>61.389999</v>
       </c>
       <c r="F107" t="n">
-        <v>60.210453</v>
+        <v>59.898087</v>
       </c>
       <c r="G107" t="n">
         <v>447200</v>
@@ -3139,7 +3139,7 @@
         <v>61.48</v>
       </c>
       <c r="F108" t="n">
-        <v>60.298721</v>
+        <v>59.985901</v>
       </c>
       <c r="G108" t="n">
         <v>165300</v>
@@ -3164,7 +3164,7 @@
         <v>61.09</v>
       </c>
       <c r="F109" t="n">
-        <v>59.916218</v>
+        <v>59.605377</v>
       </c>
       <c r="G109" t="n">
         <v>166600</v>
@@ -3189,7 +3189,7 @@
         <v>61.43</v>
       </c>
       <c r="F110" t="n">
-        <v>60.249683</v>
+        <v>59.937111</v>
       </c>
       <c r="G110" t="n">
         <v>228800</v>
@@ -3214,7 +3214,7 @@
         <v>61.279999</v>
       </c>
       <c r="F111" t="n">
-        <v>60.102566</v>
+        <v>59.790764</v>
       </c>
       <c r="G111" t="n">
         <v>223100</v>
@@ -3239,7 +3239,7 @@
         <v>61.619999</v>
       </c>
       <c r="F112" t="n">
-        <v>60.436031</v>
+        <v>60.122498</v>
       </c>
       <c r="G112" t="n">
         <v>111100</v>
@@ -3264,7 +3264,7 @@
         <v>61.549999</v>
       </c>
       <c r="F113" t="n">
-        <v>60.367378</v>
+        <v>60.054203</v>
       </c>
       <c r="G113" t="n">
         <v>147200</v>
@@ -3289,7 +3289,7 @@
         <v>61.740002</v>
       </c>
       <c r="F114" t="n">
-        <v>60.553726</v>
+        <v>60.239582</v>
       </c>
       <c r="G114" t="n">
         <v>266000</v>
@@ -3314,7 +3314,7 @@
         <v>61.970001</v>
       </c>
       <c r="F115" t="n">
-        <v>60.779312</v>
+        <v>60.463993</v>
       </c>
       <c r="G115" t="n">
         <v>246900</v>
@@ -3339,7 +3339,7 @@
         <v>61.84</v>
       </c>
       <c r="F116" t="n">
-        <v>60.651806</v>
+        <v>60.337151</v>
       </c>
       <c r="G116" t="n">
         <v>256800</v>
@@ -3364,7 +3364,7 @@
         <v>61.799999</v>
       </c>
       <c r="F117" t="n">
-        <v>60.612576</v>
+        <v>60.298126</v>
       </c>
       <c r="G117" t="n">
         <v>256300</v>
@@ -3389,7 +3389,7 @@
         <v>62.099998</v>
       </c>
       <c r="F118" t="n">
-        <v>60.906807</v>
+        <v>60.590836</v>
       </c>
       <c r="G118" t="n">
         <v>177500</v>
@@ -3414,7 +3414,7 @@
         <v>61.889999</v>
       </c>
       <c r="F119" t="n">
-        <v>60.700844</v>
+        <v>60.385941</v>
       </c>
       <c r="G119" t="n">
         <v>250300</v>
@@ -3439,7 +3439,7 @@
         <v>61.959999</v>
       </c>
       <c r="F120" t="n">
-        <v>60.769501</v>
+        <v>60.454239</v>
       </c>
       <c r="G120" t="n">
         <v>280000</v>
@@ -3464,7 +3464,7 @@
         <v>62.169998</v>
       </c>
       <c r="F121" t="n">
-        <v>60.97546</v>
+        <v>60.659134</v>
       </c>
       <c r="G121" t="n">
         <v>524900</v>
@@ -3489,7 +3489,7 @@
         <v>62.099998</v>
       </c>
       <c r="F122" t="n">
-        <v>60.906807</v>
+        <v>60.590836</v>
       </c>
       <c r="G122" t="n">
         <v>178300</v>
@@ -3514,7 +3514,7 @@
         <v>62.200001</v>
       </c>
       <c r="F123" t="n">
-        <v>61.004894</v>
+        <v>60.688408</v>
       </c>
       <c r="G123" t="n">
         <v>215800</v>
@@ -3539,7 +3539,7 @@
         <v>61.84</v>
       </c>
       <c r="F124" t="n">
-        <v>60.651806</v>
+        <v>60.337151</v>
       </c>
       <c r="G124" t="n">
         <v>167300</v>
@@ -3564,7 +3564,7 @@
         <v>62.27</v>
       </c>
       <c r="F125" t="n">
-        <v>61.073547</v>
+        <v>60.756706</v>
       </c>
       <c r="G125" t="n">
         <v>342300</v>
@@ -3589,7 +3589,7 @@
         <v>62.049999</v>
       </c>
       <c r="F126" t="n">
-        <v>61.144493</v>
+        <v>60.827286</v>
       </c>
       <c r="G126" t="n">
         <v>108500</v>
@@ -3614,7 +3614,7 @@
         <v>61.900002</v>
       </c>
       <c r="F127" t="n">
-        <v>60.996685</v>
+        <v>60.680244</v>
       </c>
       <c r="G127" t="n">
         <v>754800</v>
@@ -3639,7 +3639,7 @@
         <v>60.950001</v>
       </c>
       <c r="F128" t="n">
-        <v>60.060547</v>
+        <v>59.748962</v>
       </c>
       <c r="G128" t="n">
         <v>291500</v>
@@ -3664,7 +3664,7 @@
         <v>60.860001</v>
       </c>
       <c r="F129" t="n">
-        <v>59.971859</v>
+        <v>59.660736</v>
       </c>
       <c r="G129" t="n">
         <v>182200</v>
@@ -3689,7 +3689,7 @@
         <v>61.130001</v>
       </c>
       <c r="F130" t="n">
-        <v>60.237923</v>
+        <v>59.925411</v>
       </c>
       <c r="G130" t="n">
         <v>316600</v>
@@ -3714,7 +3714,7 @@
         <v>61.540001</v>
       </c>
       <c r="F131" t="n">
-        <v>60.641937</v>
+        <v>60.327335</v>
       </c>
       <c r="G131" t="n">
         <v>374000</v>
@@ -3739,7 +3739,7 @@
         <v>62.119999</v>
       </c>
       <c r="F132" t="n">
-        <v>61.21347</v>
+        <v>60.895905</v>
       </c>
       <c r="G132" t="n">
         <v>319600</v>
@@ -3764,7 +3764,7 @@
         <v>62.84</v>
       </c>
       <c r="F133" t="n">
-        <v>61.922966</v>
+        <v>61.601723</v>
       </c>
       <c r="G133" t="n">
         <v>239500</v>
@@ -3789,7 +3789,7 @@
         <v>62.369999</v>
       </c>
       <c r="F134" t="n">
-        <v>61.459824</v>
+        <v>61.14098</v>
       </c>
       <c r="G134" t="n">
         <v>187700</v>
@@ -3814,7 +3814,7 @@
         <v>62.57</v>
       </c>
       <c r="F135" t="n">
-        <v>61.656906</v>
+        <v>61.33704</v>
       </c>
       <c r="G135" t="n">
         <v>129500</v>
@@ -3839,7 +3839,7 @@
         <v>62.669998</v>
       </c>
       <c r="F136" t="n">
-        <v>61.755444</v>
+        <v>61.435066</v>
       </c>
       <c r="G136" t="n">
         <v>1915500</v>
@@ -3864,7 +3864,7 @@
         <v>62.66</v>
       </c>
       <c r="F137" t="n">
-        <v>61.74559</v>
+        <v>61.425262</v>
       </c>
       <c r="G137" t="n">
         <v>446800</v>
@@ -3889,7 +3889,7 @@
         <v>62.259998</v>
       </c>
       <c r="F138" t="n">
-        <v>61.351429</v>
+        <v>61.033142</v>
       </c>
       <c r="G138" t="n">
         <v>469100</v>
@@ -3914,7 +3914,7 @@
         <v>62.34</v>
       </c>
       <c r="F139" t="n">
-        <v>61.430264</v>
+        <v>61.111572</v>
       </c>
       <c r="G139" t="n">
         <v>391300</v>
@@ -3939,7 +3939,7 @@
         <v>62.490002</v>
       </c>
       <c r="F140" t="n">
-        <v>61.578075</v>
+        <v>61.258617</v>
       </c>
       <c r="G140" t="n">
         <v>292000</v>
@@ -3964,7 +3964,7 @@
         <v>62.5</v>
       </c>
       <c r="F141" t="n">
-        <v>61.587925</v>
+        <v>61.268417</v>
       </c>
       <c r="G141" t="n">
         <v>159900</v>
@@ -3989,7 +3989,7 @@
         <v>62.580002</v>
       </c>
       <c r="F142" t="n">
-        <v>61.666763</v>
+        <v>61.346844</v>
       </c>
       <c r="G142" t="n">
         <v>132200</v>
@@ -4014,7 +4014,7 @@
         <v>62.119999</v>
       </c>
       <c r="F143" t="n">
-        <v>61.21347</v>
+        <v>60.895905</v>
       </c>
       <c r="G143" t="n">
         <v>178800</v>
@@ -4039,7 +4039,7 @@
         <v>62.790001</v>
       </c>
       <c r="F144" t="n">
-        <v>61.873695</v>
+        <v>61.5527</v>
       </c>
       <c r="G144" t="n">
         <v>279500</v>
@@ -4064,7 +4064,7 @@
         <v>62.889999</v>
       </c>
       <c r="F145" t="n">
-        <v>61.972237</v>
+        <v>61.65073</v>
       </c>
       <c r="G145" t="n">
         <v>300100</v>
@@ -4089,7 +4089,7 @@
         <v>62.060001</v>
       </c>
       <c r="F146" t="n">
-        <v>61.449432</v>
+        <v>61.130642</v>
       </c>
       <c r="G146" t="n">
         <v>282400</v>
@@ -4114,7 +4114,7 @@
         <v>61.610001</v>
       </c>
       <c r="F147" t="n">
-        <v>61.00386</v>
+        <v>60.687378</v>
       </c>
       <c r="G147" t="n">
         <v>259600</v>
@@ -4139,7 +4139,7 @@
         <v>61.099998</v>
       </c>
       <c r="F148" t="n">
-        <v>60.498875</v>
+        <v>60.185013</v>
       </c>
       <c r="G148" t="n">
         <v>513100</v>
@@ -4164,7 +4164,7 @@
         <v>61.84</v>
       </c>
       <c r="F149" t="n">
-        <v>61.231598</v>
+        <v>60.913937</v>
       </c>
       <c r="G149" t="n">
         <v>242000</v>
@@ -4189,7 +4189,7 @@
         <v>61.75</v>
       </c>
       <c r="F150" t="n">
-        <v>61.142483</v>
+        <v>60.825283</v>
       </c>
       <c r="G150" t="n">
         <v>192400</v>
@@ -4214,7 +4214,7 @@
         <v>61.84</v>
       </c>
       <c r="F151" t="n">
-        <v>61.231598</v>
+        <v>60.913937</v>
       </c>
       <c r="G151" t="n">
         <v>375300</v>
@@ -4239,7 +4239,7 @@
         <v>61.880001</v>
       </c>
       <c r="F152" t="n">
-        <v>61.271202</v>
+        <v>60.953339</v>
       </c>
       <c r="G152" t="n">
         <v>143900</v>
@@ -4264,7 +4264,7 @@
         <v>61.689999</v>
       </c>
       <c r="F153" t="n">
-        <v>61.083069</v>
+        <v>60.766182</v>
       </c>
       <c r="G153" t="n">
         <v>441500</v>
@@ -4289,7 +4289,7 @@
         <v>61.650002</v>
       </c>
       <c r="F154" t="n">
-        <v>61.043468</v>
+        <v>60.726784</v>
       </c>
       <c r="G154" t="n">
         <v>178900</v>
@@ -4314,7 +4314,7 @@
         <v>61.049999</v>
       </c>
       <c r="F155" t="n">
-        <v>60.449368</v>
+        <v>60.135765</v>
       </c>
       <c r="G155" t="n">
         <v>229900</v>
@@ -4339,7 +4339,7 @@
         <v>60.650002</v>
       </c>
       <c r="F156" t="n">
-        <v>60.053307</v>
+        <v>59.741756</v>
       </c>
       <c r="G156" t="n">
         <v>210100</v>
@@ -4364,7 +4364,7 @@
         <v>60.509998</v>
       </c>
       <c r="F157" t="n">
-        <v>59.91468</v>
+        <v>59.603848</v>
       </c>
       <c r="G157" t="n">
         <v>385000</v>
@@ -4389,7 +4389,7 @@
         <v>60.369999</v>
       </c>
       <c r="F158" t="n">
-        <v>59.776058</v>
+        <v>59.465946</v>
       </c>
       <c r="G158" t="n">
         <v>553100</v>
@@ -4414,7 +4414,7 @@
         <v>60.400002</v>
       </c>
       <c r="F159" t="n">
-        <v>59.805767</v>
+        <v>59.495502</v>
       </c>
       <c r="G159" t="n">
         <v>167600</v>
@@ -4439,7 +4439,7 @@
         <v>60.029999</v>
       </c>
       <c r="F160" t="n">
-        <v>59.439404</v>
+        <v>59.131039</v>
       </c>
       <c r="G160" t="n">
         <v>331400</v>
@@ -4464,7 +4464,7 @@
         <v>60.209999</v>
       </c>
       <c r="F161" t="n">
-        <v>59.617634</v>
+        <v>59.308342</v>
       </c>
       <c r="G161" t="n">
         <v>200100</v>
@@ -4489,7 +4489,7 @@
         <v>61.09</v>
       </c>
       <c r="F162" t="n">
-        <v>60.488976</v>
+        <v>60.175171</v>
       </c>
       <c r="G162" t="n">
         <v>201900</v>
@@ -4514,7 +4514,7 @@
         <v>60.799999</v>
       </c>
       <c r="F163" t="n">
-        <v>60.201828</v>
+        <v>59.889507</v>
       </c>
       <c r="G163" t="n">
         <v>232700</v>
@@ -4539,7 +4539,7 @@
         <v>60.990002</v>
       </c>
       <c r="F164" t="n">
-        <v>60.389961</v>
+        <v>60.076664</v>
       </c>
       <c r="G164" t="n">
         <v>155100</v>
@@ -4564,7 +4564,7 @@
         <v>61.09</v>
       </c>
       <c r="F165" t="n">
-        <v>60.488976</v>
+        <v>60.175171</v>
       </c>
       <c r="G165" t="n">
         <v>371300</v>
@@ -4589,7 +4589,7 @@
         <v>61.720001</v>
       </c>
       <c r="F166" t="n">
-        <v>61.112782</v>
+        <v>60.795734</v>
       </c>
       <c r="G166" t="n">
         <v>374900</v>
@@ -4614,7 +4614,7 @@
         <v>61.540001</v>
       </c>
       <c r="F167" t="n">
-        <v>60.934547</v>
+        <v>60.618427</v>
       </c>
       <c r="G167" t="n">
         <v>145000</v>
@@ -4639,7 +4639,7 @@
         <v>61.540001</v>
       </c>
       <c r="F168" t="n">
-        <v>60.934547</v>
+        <v>60.618427</v>
       </c>
       <c r="G168" t="n">
         <v>196400</v>
@@ -4664,7 +4664,7 @@
         <v>61.07</v>
       </c>
       <c r="F169" t="n">
-        <v>60.763412</v>
+        <v>60.448181</v>
       </c>
       <c r="G169" t="n">
         <v>254200</v>
@@ -4689,7 +4689,7 @@
         <v>60.509998</v>
       </c>
       <c r="F170" t="n">
-        <v>60.206223</v>
+        <v>59.893879</v>
       </c>
       <c r="G170" t="n">
         <v>361000</v>
@@ -4714,7 +4714,7 @@
         <v>60.419998</v>
       </c>
       <c r="F171" t="n">
-        <v>60.116673</v>
+        <v>59.804794</v>
       </c>
       <c r="G171" t="n">
         <v>384100</v>
@@ -4739,7 +4739,7 @@
         <v>60.689999</v>
       </c>
       <c r="F172" t="n">
-        <v>60.385319</v>
+        <v>60.072048</v>
       </c>
       <c r="G172" t="n">
         <v>284300</v>
@@ -4764,7 +4764,7 @@
         <v>60.799999</v>
       </c>
       <c r="F173" t="n">
-        <v>60.494766</v>
+        <v>60.180927</v>
       </c>
       <c r="G173" t="n">
         <v>340200</v>
@@ -4789,7 +4789,7 @@
         <v>60.709999</v>
       </c>
       <c r="F174" t="n">
-        <v>60.40522</v>
+        <v>60.091846</v>
       </c>
       <c r="G174" t="n">
         <v>187800</v>
@@ -4814,7 +4814,7 @@
         <v>60.700001</v>
       </c>
       <c r="F175" t="n">
-        <v>60.395271</v>
+        <v>60.081947</v>
       </c>
       <c r="G175" t="n">
         <v>164500</v>
@@ -4839,7 +4839,7 @@
         <v>60.73</v>
       </c>
       <c r="F176" t="n">
-        <v>60.425117</v>
+        <v>60.111641</v>
       </c>
       <c r="G176" t="n">
         <v>229600</v>
@@ -4864,7 +4864,7 @@
         <v>60.77</v>
       </c>
       <c r="F177" t="n">
-        <v>60.46492</v>
+        <v>60.151237</v>
       </c>
       <c r="G177" t="n">
         <v>152400</v>
@@ -4889,7 +4889,7 @@
         <v>60.59</v>
       </c>
       <c r="F178" t="n">
-        <v>60.285824</v>
+        <v>59.973068</v>
       </c>
       <c r="G178" t="n">
         <v>153900</v>
@@ -4914,7 +4914,7 @@
         <v>60.599998</v>
       </c>
       <c r="F179" t="n">
-        <v>60.295773</v>
+        <v>59.982967</v>
       </c>
       <c r="G179" t="n">
         <v>99700</v>
@@ -4939,7 +4939,7 @@
         <v>60.529999</v>
       </c>
       <c r="F180" t="n">
-        <v>60.226124</v>
+        <v>59.913677</v>
       </c>
       <c r="G180" t="n">
         <v>195600</v>
@@ -4964,7 +4964,7 @@
         <v>60.470001</v>
       </c>
       <c r="F181" t="n">
-        <v>60.166428</v>
+        <v>59.854294</v>
       </c>
       <c r="G181" t="n">
         <v>153400</v>
@@ -4989,7 +4989,7 @@
         <v>59.91</v>
       </c>
       <c r="F182" t="n">
-        <v>59.609238</v>
+        <v>59.299992</v>
       </c>
       <c r="G182" t="n">
         <v>230900</v>
@@ -5014,7 +5014,7 @@
         <v>60.130001</v>
       </c>
       <c r="F183" t="n">
-        <v>59.828133</v>
+        <v>59.517754</v>
       </c>
       <c r="G183" t="n">
         <v>322300</v>
@@ -5039,7 +5039,7 @@
         <v>59.77</v>
       </c>
       <c r="F184" t="n">
-        <v>59.46994</v>
+        <v>59.161419</v>
       </c>
       <c r="G184" t="n">
         <v>298300</v>
@@ -5064,7 +5064,7 @@
         <v>59.330002</v>
       </c>
       <c r="F185" t="n">
-        <v>59.03215</v>
+        <v>58.725899</v>
       </c>
       <c r="G185" t="n">
         <v>539300</v>
@@ -5089,7 +5089,7 @@
         <v>59.200001</v>
       </c>
       <c r="F186" t="n">
-        <v>58.902802</v>
+        <v>58.597221</v>
       </c>
       <c r="G186" t="n">
         <v>467500</v>
@@ -5114,7 +5114,7 @@
         <v>59.299999</v>
       </c>
       <c r="F187" t="n">
-        <v>59.002296</v>
+        <v>58.696201</v>
       </c>
       <c r="G187" t="n">
         <v>680400</v>
@@ -5139,7 +5139,7 @@
         <v>59.16</v>
       </c>
       <c r="F188" t="n">
-        <v>58.863003</v>
+        <v>58.557629</v>
       </c>
       <c r="G188" t="n">
         <v>982400</v>
@@ -5164,7 +5164,7 @@
         <v>58.290001</v>
       </c>
       <c r="F189" t="n">
-        <v>58.290001</v>
+        <v>57.987598</v>
       </c>
       <c r="G189" t="n">
         <v>658100</v>
@@ -5189,7 +5189,7 @@
         <v>57.619999</v>
       </c>
       <c r="F190" t="n">
-        <v>57.619999</v>
+        <v>57.321075</v>
       </c>
       <c r="G190" t="n">
         <v>833600</v>
@@ -5214,7 +5214,7 @@
         <v>57.810001</v>
       </c>
       <c r="F191" t="n">
-        <v>57.810001</v>
+        <v>57.51009</v>
       </c>
       <c r="G191" t="n">
         <v>359800</v>
@@ -5239,7 +5239,7 @@
         <v>57.830002</v>
       </c>
       <c r="F192" t="n">
-        <v>57.830002</v>
+        <v>57.529987</v>
       </c>
       <c r="G192" t="n">
         <v>494800</v>
@@ -5264,7 +5264,7 @@
         <v>57.869999</v>
       </c>
       <c r="F193" t="n">
-        <v>57.869999</v>
+        <v>57.569778</v>
       </c>
       <c r="G193" t="n">
         <v>482200</v>
@@ -5289,7 +5289,7 @@
         <v>58.119999</v>
       </c>
       <c r="F194" t="n">
-        <v>58.119999</v>
+        <v>57.818481</v>
       </c>
       <c r="G194" t="n">
         <v>196300</v>
@@ -5314,7 +5314,7 @@
         <v>58.189999</v>
       </c>
       <c r="F195" t="n">
-        <v>58.189999</v>
+        <v>57.888115</v>
       </c>
       <c r="G195" t="n">
         <v>599100</v>
@@ -5339,7 +5339,7 @@
         <v>58.669998</v>
       </c>
       <c r="F196" t="n">
-        <v>58.669998</v>
+        <v>58.365627</v>
       </c>
       <c r="G196" t="n">
         <v>252200</v>
@@ -5364,7 +5364,7 @@
         <v>58.16</v>
       </c>
       <c r="F197" t="n">
-        <v>58.16</v>
+        <v>57.858273</v>
       </c>
       <c r="G197" t="n">
         <v>449600</v>
@@ -5389,7 +5389,7 @@
         <v>58.32</v>
       </c>
       <c r="F198" t="n">
-        <v>58.32</v>
+        <v>58.017445</v>
       </c>
       <c r="G198" t="n">
         <v>227200</v>
@@ -5414,7 +5414,7 @@
         <v>58.18</v>
       </c>
       <c r="F199" t="n">
-        <v>58.18</v>
+        <v>57.87817</v>
       </c>
       <c r="G199" t="n">
         <v>196200</v>
@@ -5439,7 +5439,7 @@
         <v>57.990002</v>
       </c>
       <c r="F200" t="n">
-        <v>57.990002</v>
+        <v>57.689156</v>
       </c>
       <c r="G200" t="n">
         <v>378300</v>
@@ -5464,7 +5464,7 @@
         <v>57.509998</v>
       </c>
       <c r="F201" t="n">
-        <v>57.509998</v>
+        <v>57.211643</v>
       </c>
       <c r="G201" t="n">
         <v>492800</v>
@@ -5489,7 +5489,7 @@
         <v>57.200001</v>
       </c>
       <c r="F202" t="n">
-        <v>57.200001</v>
+        <v>56.903255</v>
       </c>
       <c r="G202" t="n">
         <v>292600</v>
@@ -5514,7 +5514,7 @@
         <v>57.439999</v>
       </c>
       <c r="F203" t="n">
-        <v>57.439999</v>
+        <v>57.142006</v>
       </c>
       <c r="G203" t="n">
         <v>287700</v>
@@ -5539,7 +5539,7 @@
         <v>57.709999</v>
       </c>
       <c r="F204" t="n">
-        <v>57.709999</v>
+        <v>57.410606</v>
       </c>
       <c r="G204" t="n">
         <v>587300</v>
@@ -5564,7 +5564,7 @@
         <v>58.169998</v>
       </c>
       <c r="F205" t="n">
-        <v>58.169998</v>
+        <v>57.868221</v>
       </c>
       <c r="G205" t="n">
         <v>344000</v>
@@ -5589,7 +5589,7 @@
         <v>57.759998</v>
       </c>
       <c r="F206" t="n">
-        <v>57.759998</v>
+        <v>57.460346</v>
       </c>
       <c r="G206" t="n">
         <v>332600</v>
@@ -5614,7 +5614,7 @@
         <v>57.91</v>
       </c>
       <c r="F207" t="n">
-        <v>57.91</v>
+        <v>57.60957</v>
       </c>
       <c r="G207" t="n">
         <v>387700</v>
@@ -5639,10 +5639,335 @@
         <v>57.91</v>
       </c>
       <c r="F208" t="n">
-        <v>57.91</v>
+        <v>57.60957</v>
       </c>
       <c r="G208" t="n">
         <v>301900</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>57.919998</v>
+      </c>
+      <c r="C209" t="n">
+        <v>58.130001</v>
+      </c>
+      <c r="D209" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="E209" t="n">
+        <v>58.029999</v>
+      </c>
+      <c r="F209" t="n">
+        <v>57.728947</v>
+      </c>
+      <c r="G209" t="n">
+        <v>343700</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>58.139999</v>
+      </c>
+      <c r="C210" t="n">
+        <v>58.349998</v>
+      </c>
+      <c r="D210" t="n">
+        <v>58.02</v>
+      </c>
+      <c r="E210" t="n">
+        <v>58.02</v>
+      </c>
+      <c r="F210" t="n">
+        <v>57.719002</v>
+      </c>
+      <c r="G210" t="n">
+        <v>357900</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>57.990002</v>
+      </c>
+      <c r="C211" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="D211" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="E211" t="n">
+        <v>58.509998</v>
+      </c>
+      <c r="F211" t="n">
+        <v>58.509998</v>
+      </c>
+      <c r="G211" t="n">
+        <v>323600</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>58.830002</v>
+      </c>
+      <c r="C212" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="D212" t="n">
+        <v>58.830002</v>
+      </c>
+      <c r="E212" t="n">
+        <v>59.040001</v>
+      </c>
+      <c r="F212" t="n">
+        <v>59.040001</v>
+      </c>
+      <c r="G212" t="n">
+        <v>415700</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>59.610001</v>
+      </c>
+      <c r="C213" t="n">
+        <v>59.959999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>59.549999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="F213" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="G213" t="n">
+        <v>558700</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>59.490002</v>
+      </c>
+      <c r="C214" t="n">
+        <v>59.490002</v>
+      </c>
+      <c r="D214" t="n">
+        <v>59.040001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>59.099998</v>
+      </c>
+      <c r="F214" t="n">
+        <v>59.099998</v>
+      </c>
+      <c r="G214" t="n">
+        <v>611200</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>59.110001</v>
+      </c>
+      <c r="C215" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="D215" t="n">
+        <v>59.110001</v>
+      </c>
+      <c r="E215" t="n">
+        <v>59.419998</v>
+      </c>
+      <c r="F215" t="n">
+        <v>59.419998</v>
+      </c>
+      <c r="G215" t="n">
+        <v>579900</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>59.360001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>59.580002</v>
+      </c>
+      <c r="D216" t="n">
+        <v>59.349998</v>
+      </c>
+      <c r="E216" t="n">
+        <v>59.490002</v>
+      </c>
+      <c r="F216" t="n">
+        <v>59.490002</v>
+      </c>
+      <c r="G216" t="n">
+        <v>229100</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>59.349998</v>
+      </c>
+      <c r="C217" t="n">
+        <v>59.43</v>
+      </c>
+      <c r="D217" t="n">
+        <v>58.959999</v>
+      </c>
+      <c r="E217" t="n">
+        <v>58.959999</v>
+      </c>
+      <c r="F217" t="n">
+        <v>58.959999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>290500</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>59.209999</v>
+      </c>
+      <c r="C218" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="D218" t="n">
+        <v>59.02</v>
+      </c>
+      <c r="E218" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="F218" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="G218" t="n">
+        <v>243500</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="C219" t="n">
+        <v>59.110001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>58.720001</v>
+      </c>
+      <c r="E219" t="n">
+        <v>58.919998</v>
+      </c>
+      <c r="F219" t="n">
+        <v>58.919998</v>
+      </c>
+      <c r="G219" t="n">
+        <v>316700</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>59.599998</v>
+      </c>
+      <c r="C220" t="n">
+        <v>60.119999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>59.580002</v>
+      </c>
+      <c r="E220" t="n">
+        <v>60</v>
+      </c>
+      <c r="F220" t="n">
+        <v>60</v>
+      </c>
+      <c r="G220" t="n">
+        <v>794100</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>59.810001</v>
+      </c>
+      <c r="C221" t="n">
+        <v>59.834999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>59.599998</v>
+      </c>
+      <c r="E221" t="n">
+        <v>59.632702</v>
+      </c>
+      <c r="F221" t="n">
+        <v>59.632702</v>
+      </c>
+      <c r="G221" t="n">
+        <v>90124</v>
       </c>
     </row>
   </sheetData>
